--- a/2-Excel/class-03-conditionals.xlsx
+++ b/2-Excel/class-03-conditionals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40cbc61c02823304/Área de Trabalho/Emanuel/Data-Analyst-Course/1-Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40cbc61c02823304/Área de Trabalho/Emanuel/Data-Analysis-Course/2-Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="442" documentId="11_AD4D361C20488DEA4E38A0DDDC5C55145ADEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCC51E2E-11F3-4A4B-A40D-D03904516B26}"/>
+  <xr:revisionPtr revIDLastSave="466" documentId="11_AD4D361C20488DEA4E38A0DDDC5C55145ADEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{202B6D7A-17B4-4271-A17F-A52E9EBFF1F5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MÉDIA" sheetId="1" r:id="rId1"/>
@@ -234,27 +234,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -846,10 +826,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F4:F13">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="APROVADO">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="APROVADO">
       <formula>NOT(ISERROR(SEARCH("APROVADO",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="REPROVADO">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="REPROVADO">
       <formula>NOT(ISERROR(SEARCH("REPROVADO",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
